--- a/data/trans_dic/P38A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Provincia-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_dic/P38A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,48%</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>68,78; 79,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>89,36; 97,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>80,56; 88,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>96,01; 99,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>76,01; 82,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>93,61; 98,13</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,11%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>83,03; 89,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>83,33; 89,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>82,21; 91,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>89,73; 94,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>90,64; 95,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>87,55; 93,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>87,63; 91,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>87,84; 91,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>86,14; 91,46</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>84,43; 91,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>85,76; 92,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>88,95; 96,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>88,81; 94,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>89,97; 95,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>95,4; 98,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>87,98; 92,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>89,45; 93,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>93,5; 97,16</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,7%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>79,98; 86,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>88,79; 94,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>82,86; 94,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>85,71; 90,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>90,38; 95,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>78,81; 95,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>83,72; 87,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>90,51; 94,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>83,93; 93,8</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,68%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>81,65; 91,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>72,13; 83,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>76,58; 87,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>89,22; 96,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>84,56; 92,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>82,86; 91,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>87,03; 93,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>79,66; 86,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>81,74; 88,92</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,97%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>86,97; 94,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>80,09; 89,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>90,86; 97,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>91,75; 97,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>88,58; 94,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>93,89; 98,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>90,88; 95,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>85,67; 91,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>93,73; 97,69</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,62%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,62%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,0%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>87,01; 92,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>68,71; 76,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>80,1; 88,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>91,43; 95,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>76,83; 82,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>89,78; 95,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>89,94; 93,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>73,81; 78,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>86,54; 91,71</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,98%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>75,27; 81,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>86,4; 90,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>47,91; 66,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>79,47; 85,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>92,32; 95,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>69,45; 76,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>78,25; 82,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>90,2; 92,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>59,44; 70,32</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,43%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>84,02; 86,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>82,1; 84,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>77,45; 83,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>88,57; 90,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>88,75; 90,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>87,01; 89,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>86,67; 88,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>85,91; 87,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>83,45; 86,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Provincia-trans_dic.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>95,74%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,13; 90,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,36; 97,55</t>
+          <t>85,98; 97,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,91; 91,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,01; 99,12</t>
+          <t>95,79; 99,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,33; 89,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,61; 98,13</t>
+          <t>91,6; 97,84</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>86,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>88,61%</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,21; 91,2</t>
+          <t>80,99; 90,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,55; 93,34</t>
+          <t>87,59; 93,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,14; 91,46</t>
+          <t>85,47; 91,16</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>95,43%</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,95; 96,22</t>
+          <t>88,43; 96,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,4; 98,58</t>
+          <t>95,35; 98,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,5; 97,16</t>
+          <t>93,25; 97,09</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>83,35%</t>
+          <t>80,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>84,27%</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,98; 86,02</t>
+          <t>76,06; 84,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,86; 94,71</t>
+          <t>80,87; 94,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,71; 90,36</t>
+          <t>85,42; 91,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,81; 95,06</t>
+          <t>50,55; 95,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,72; 87,69</t>
+          <t>81,92; 87,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,93; 93,8</t>
+          <t>63,48; 93,44</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>82,97%</t>
+          <t>83,06%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>86,02%</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,58; 87,74</t>
+          <t>76,73; 87,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,86; 91,6</t>
+          <t>83,97; 91,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81,74; 88,92</t>
+          <t>82,28; 89,09</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>95,84%</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,86; 97,7</t>
+          <t>90,38; 97,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,89; 98,82</t>
+          <t>93,92; 98,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,73; 97,69</t>
+          <t>93,54; 97,62</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>89,11%</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,1; 88,23</t>
+          <t>78,19; 87,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,78; 95,35</t>
+          <t>90,11; 96,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>86,54; 91,71</t>
+          <t>86,02; 93,32</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>48,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>72,86%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>66,98%</t>
+          <t>59,31%</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,91; 66,03</t>
+          <t>22,58; 66,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>69,45; 76,07</t>
+          <t>70,55; 76,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>59,44; 70,32</t>
+          <t>36,62; 70,59</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>77,65%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>83,09%</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>77,45; 83,92</t>
+          <t>59,75; 84,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>87,01; 89,96</t>
+          <t>82,02; 90,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>83,45; 86,69</t>
+          <t>73,0; 86,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,13; 90,78</t>
+          <t>82,87; 90,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,78; 79,44</t>
+          <t>68,34; 79,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,98; 97,11</t>
+          <t>86,04; 97,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,91; 91,34</t>
+          <t>83,02; 90,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,56; 88,83</t>
+          <t>80,97; 88,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,79; 99,11</t>
+          <t>95,82; 99,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,33; 89,75</t>
+          <t>84,57; 90,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>76,01; 82,92</t>
+          <t>76,13; 82,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,6; 97,84</t>
+          <t>92,17; 97,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,03; 89,44</t>
+          <t>82,99; 89,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,33; 89,52</t>
+          <t>83,28; 89,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,99; 90,68</t>
+          <t>81,22; 90,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,73; 94,3</t>
+          <t>89,74; 94,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,64; 95,24</t>
+          <t>90,48; 95,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,59; 93,33</t>
+          <t>87,76; 93,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,63; 91,43</t>
+          <t>87,54; 91,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,84; 91,69</t>
+          <t>87,9; 91,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,47; 91,16</t>
+          <t>85,51; 91,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,43; 91,7</t>
+          <t>84,6; 91,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,76; 92,69</t>
+          <t>86,41; 92,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,43; 96,06</t>
+          <t>89,23; 96,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,81; 94,99</t>
+          <t>89,09; 94,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,97; 95,32</t>
+          <t>90,22; 95,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,35; 98,56</t>
+          <t>95,05; 98,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>87,98; 92,64</t>
+          <t>88,24; 92,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,45; 93,64</t>
+          <t>89,25; 93,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,25; 97,09</t>
+          <t>93,5; 96,89</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,06; 84,34</t>
+          <t>75,79; 84,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,79; 94,81</t>
+          <t>88,74; 94,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,87; 94,58</t>
+          <t>80,48; 94,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,42; 91,54</t>
+          <t>84,92; 91,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,38; 95,41</t>
+          <t>89,87; 95,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,55; 95,51</t>
+          <t>49,52; 95,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,92; 87,09</t>
+          <t>81,88; 86,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,51; 94,45</t>
+          <t>90,32; 94,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,48; 93,44</t>
+          <t>59,42; 93,48</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,65; 91,16</t>
+          <t>81,64; 91,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,13; 83,2</t>
+          <t>71,78; 82,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,73; 87,75</t>
+          <t>76,45; 87,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,22; 96,0</t>
+          <t>89,27; 96,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,56; 92,44</t>
+          <t>84,55; 92,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,97; 91,88</t>
+          <t>84,33; 92,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,03; 93,03</t>
+          <t>86,84; 92,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,66; 86,7</t>
+          <t>79,86; 86,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>82,28; 89,09</t>
+          <t>82,42; 89,11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,97; 94,12</t>
+          <t>87,17; 94,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,09; 89,11</t>
+          <t>79,92; 89,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,38; 97,6</t>
+          <t>90,44; 97,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>91,75; 97,17</t>
+          <t>92,07; 97,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,58; 94,8</t>
+          <t>88,17; 94,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,92; 98,83</t>
+          <t>93,86; 98,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,88; 95,19</t>
+          <t>90,86; 95,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,67; 91,01</t>
+          <t>85,29; 91,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,54; 97,62</t>
+          <t>93,37; 97,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,01; 92,0</t>
+          <t>87,05; 92,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>68,71; 76,1</t>
+          <t>68,98; 76,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,19; 87,55</t>
+          <t>78,15; 87,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>91,43; 95,27</t>
+          <t>91,61; 95,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>76,83; 82,75</t>
+          <t>77,04; 83,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,11; 96,76</t>
+          <t>90,21; 96,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,94; 93,09</t>
+          <t>90,13; 93,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>73,81; 78,64</t>
+          <t>73,79; 78,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>86,02; 93,32</t>
+          <t>86,18; 93,8</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>75,27; 81,35</t>
+          <t>75,3; 81,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,4; 90,8</t>
+          <t>86,42; 90,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,58; 66,05</t>
+          <t>21,67; 66,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>79,47; 85,12</t>
+          <t>79,12; 84,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,7</t>
+          <t>92,68; 95,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,55; 76,86</t>
+          <t>70,67; 76,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>78,25; 82,36</t>
+          <t>78,14; 82,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>90,2; 92,95</t>
+          <t>90,07; 92,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>36,62; 70,59</t>
+          <t>37,05; 70,5</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>84,02; 86,54</t>
+          <t>83,91; 86,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>82,1; 84,92</t>
+          <t>82,19; 84,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>59,75; 84,06</t>
+          <t>60,45; 84,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>88,57; 90,61</t>
+          <t>88,5; 90,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>88,75; 90,81</t>
+          <t>88,79; 90,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>82,02; 90,58</t>
+          <t>81,85; 90,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>86,67; 88,3</t>
+          <t>86,69; 88,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>85,91; 87,51</t>
+          <t>85,96; 87,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>73,0; 86,79</t>
+          <t>73,87; 86,85</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han tomado la tensión alguna vez un/a profesional sanitario/a</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>251378</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>215537</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>291379</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>251688</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>244925</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>284093</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>503066</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>460462</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>575471</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>238992; 261921</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>198822; 230194</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>267955; 303005</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>238474; 261082</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>232866; 255261</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>277521; 287313</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>486858; 519057</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>440433; 479885</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>554002; 588051</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>434792</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>429549</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>448209</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>482624</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>487071</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>467468</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>917416</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>916620</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>915677</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>416278; 449482</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>413043; 444183</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>421036; 469772</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>469130; 492897</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>473303; 497437</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>451924; 480996</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>896749; 937236</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>895759; 935511</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>883616; 941817</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>284991</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>286859</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>295106</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>315102</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>312143</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>339668</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>600094</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>599001</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>634775</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>272519; 294544</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>275273; 295362</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>282019; 303613</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>303815; 323445</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>302583; 319899</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>331830; 344286</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>585175; 613186</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>583640; 610877</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>621942; 644504</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>299761</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>339249</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>280605</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>344070</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>360516</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>383711</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>643831</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>699765</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>664315</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>282553; 314514</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>326556; 348613</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>251547; 295125</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>329446; 355355</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>348056; 369279</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>235571; 454379</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>622947; 661740</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>682156; 712691</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>468353; 736904</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>183559</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>164714</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>148457</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>202216</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>194528</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>184456</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>385776</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>359242</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>332913</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>172813; 193422</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>151615; 175270</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>136641; 157119</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>193498; 208667</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>184807; 202749</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>175630; 191627</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>372045; 397415</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>343253; 373040</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>318964; 344888</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>249992</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>223199</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>255275</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>265371</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>249336</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>249495</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>515362</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>472536</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>504770</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>238821; 258606</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>209450; 233442</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>243860; 262336</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>256932; 271310</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>239276; 257073</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>241276; 253960</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>502470; 527050</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>454962; 486662</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>491779; 513103</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>590931</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>473663</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>520968</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>644070</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>548549</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>792160</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1235001</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1022211</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1313128</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>573551; 606585</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>449914; 496627</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>487854; 545839</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>631268; 656097</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>529369; 571132</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>766127; 821827</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1214999; 1256250</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>988349; 1051215</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1269955; 1382147</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>607859</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>683530</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>446540</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>673265</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>778115</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>529915</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1281124</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1461645</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>976455</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>582753; 630432</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>666081; 699399</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>201277; 620634</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>649443; 694449</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>763881; 790084</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>507224; 551601</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1246073; 1312616</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1436512; 1481736</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>610024; 1160760</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2707</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2692</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2950</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2970</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>4926</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5645</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>5662</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>7876</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2903265</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2816300</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2686540</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>3178406</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>3175183</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3230964</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>6081671</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>5991483</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>5917504</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2855711; 2940312</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2769411; 2856110</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2091288; 2911284</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>3136959; 3211722</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3138530; 3209704</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2997333; 3314381</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>6023651; 6137725</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>5934921; 6046536</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>5260639; 6184803</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>